--- a/biology/Médecine/Hôpital_universitaire_pour_les_enfants_à_Belgrade/Hôpital_universitaire_pour_les_enfants_à_Belgrade.xlsx
+++ b/biology/Médecine/Hôpital_universitaire_pour_les_enfants_à_Belgrade/Hôpital_universitaire_pour_les_enfants_à_Belgrade.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_pour_les_enfants_%C3%A0_Belgrade</t>
+          <t>Hôpital_universitaire_pour_les_enfants_à_Belgrade</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital universitaire pour les enfants (en serbe cyrillique : Универзитетска дечја клиника ; en serbe latin : Univerzitetska dečja klinika) est une institution de santé située à Belgrade, la capitale de la Serbie, dans la municipalité urbaine de Savski venac. Construit entre 1936 et 1940, il est inscrit sur la liste des biens culturels de la Ville de Belgrade[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital universitaire pour les enfants (en serbe cyrillique : Универзитетска дечја клиника ; en serbe latin : Univerzitetska dečja klinika) est une institution de santé située à Belgrade, la capitale de la Serbie, dans la municipalité urbaine de Savski venac. Construit entre 1936 et 1940, il est inscrit sur la liste des biens culturels de la Ville de Belgrade.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_universitaire_pour_les_enfants_%C3%A0_Belgrade</t>
+          <t>Hôpital_universitaire_pour_les_enfants_à_Belgrade</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital, situé 10 rue Tiršova et 13 rue Pasterova, a été construit sur des plans de l'architecte Milan Zloković entre 1936 et 1940 pour accueillir une clinique pour les enfants qui soit une institution indépendante. Cette clinique a été fondée en 1924, juste après la création de l'École de médecine de Belgrade, et des bâtiments furent conçus pour accueillir l'institution[1].
-L'architecture de l'ensemble relève du style moderniste[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital, situé 10 rue Tiršova et 13 rue Pasterova, a été construit sur des plans de l'architecte Milan Zloković entre 1936 et 1940 pour accueillir une clinique pour les enfants qui soit une institution indépendante. Cette clinique a été fondée en 1924, juste après la création de l'École de médecine de Belgrade, et des bâtiments furent conçus pour accueillir l'institution.
+L'architecture de l'ensemble relève du style moderniste.
 </t>
         </is>
       </c>
